--- a/src/backend/component/trip/destination/file/example.xlsx
+++ b/src/backend/component/trip/destination/file/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Destination Excel File" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,22 +11,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>example</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Dinajpur</t>
+  </si>
+  <si>
+    <t>dinajpur</t>
+  </si>
+  <si>
+    <t>Rangpur</t>
+  </si>
+  <si>
+    <t>rangpur</t>
+  </si>
+  <si>
+    <t>Nilphamari</t>
+  </si>
+  <si>
+    <t>nilphamari</t>
+  </si>
+  <si>
+    <t>Birgonj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -35,11 +56,6 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -59,15 +75,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,13 +305,52 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2024.0</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
